--- a/WPMTracker/WPM.xlsx
+++ b/WPMTracker/WPM.xlsx
@@ -1,36 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\WPMTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF09BFD7-FC5A-4175-8A2E-E4D4F96C8D69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>WPM</t>
+  </si>
+  <si>
+    <t>Tastenanschläge (gesamt)</t>
+  </si>
+  <si>
+    <t>Tastenanschläge (richtig)</t>
+  </si>
+  <si>
+    <t>Tastenanschläge (falsch)</t>
+  </si>
+  <si>
+    <t>Genauigkeit</t>
+  </si>
+  <si>
+    <t>Korrekte Wörter</t>
+  </si>
+  <si>
+    <t>Falsche Wörter</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,94 +86,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -401,235 +379,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="40.5703125" customWidth="1" style="1" min="2" max="2"/>
-    <col width="9.42578125" customWidth="1" style="1" min="3" max="3"/>
-    <col width="24.140625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="23.28515625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="22.85546875" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
-    <col width="11.7109375" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" style="1" min="8" max="9"/>
+    <col min="1" max="1" width="7.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Nr.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>WPM</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tastenanschläge (gesamt)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Tastenanschläge (richtig)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tastenanschläge (falsch)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Genauigkeit</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Korrekte Wörter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Falsche Wörter</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>44308.99518751279</v>
-      </c>
-      <c r="C2" t="n">
-        <v>94</v>
-      </c>
-      <c r="D2" t="n">
-        <v>496</v>
-      </c>
-      <c r="E2" t="n">
-        <v>468</v>
-      </c>
-      <c r="F2" t="n">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>86</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="3" t="n"/>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="4" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="3" t="n"/>
-      <c r="F4" s="5" t="n"/>
-      <c r="G4" s="4" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="3" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="I5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="n"/>
-      <c r="G6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="3" t="n"/>
-      <c r="G7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="n"/>
-      <c r="G8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="n"/>
-      <c r="G9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="n"/>
-      <c r="G10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="3" t="n"/>
-      <c r="G11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="3" t="n"/>
-      <c r="G12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="n"/>
-      <c r="G13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="3" t="n"/>
-      <c r="G14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="3" t="n"/>
-      <c r="G15" s="2" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="3" t="n"/>
-      <c r="G16" s="2" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="3" t="n"/>
-      <c r="G17" s="2" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="3" t="n"/>
-      <c r="G18" s="2" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="3" t="n"/>
-      <c r="G19" s="2" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="3" t="n"/>
-      <c r="G20" s="2" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="3" t="n"/>
-      <c r="G21" s="2" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="3" t="n"/>
-      <c r="G22" s="2" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="3" t="n"/>
-      <c r="G23" s="2" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="3" t="n"/>
-      <c r="G24" s="2" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="3" t="n"/>
-      <c r="G25" s="2" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="3" t="n"/>
-      <c r="G26" s="2" t="n"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="3" t="n"/>
-      <c r="G27" s="2" t="n"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="3" t="n"/>
-      <c r="G28" s="2" t="n"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="3" t="n"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="3" t="n"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="3" t="n"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="3" t="n"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="3" t="n"/>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2" s="1"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" s="2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="1"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/WPMTracker/WPM.xlsx
+++ b/WPMTracker/WPM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\WPMTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B58B96D-E5FD-4888-93D5-494655D7C8D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D6CA89-23F0-4E2B-8250-A5F4BCB8DBAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WPM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Nr.</t>
   </si>
@@ -87,6 +87,9 @@
   <si>
     <t>94.35</t>
   </si>
+  <si>
+    <t>97.47</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +136,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +227,44 @@
         <bgColor rgb="FFDD5151"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -268,11 +318,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -329,6 +390,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -614,7 +696,7 @@
   <dimension ref="A1:I4434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,7 +1094,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="14">
-        <v>44311.938757049284</v>
+        <v>44311.938757048607</v>
       </c>
       <c r="C14" s="15">
         <v>87</v>
@@ -1037,8 +1119,33 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>44312.460060358797</v>
+      </c>
+      <c r="C15" s="22">
+        <v>100</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="24">
+        <v>506</v>
+      </c>
+      <c r="F15" s="25">
+        <v>500</v>
+      </c>
+      <c r="G15" s="26">
+        <v>6</v>
+      </c>
+      <c r="H15" s="25">
+        <v>90</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>

--- a/WPMTracker/WPM.xlsx
+++ b/WPMTracker/WPM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\WPMTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D6CA89-23F0-4E2B-8250-A5F4BCB8DBAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D0507-EC19-41F8-9FC5-869422778096}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Nr.</t>
   </si>
@@ -90,6 +90,9 @@
   <si>
     <t>97.47</t>
   </si>
+  <si>
+    <t>95.9</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +150,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +277,44 @@
         <bgColor rgb="FFDD5151"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF9BC2E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD5151"/>
+        <bgColor rgb="FFDD5151"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -329,11 +379,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -411,6 +472,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -696,7 +778,7 @@
   <dimension ref="A1:I4434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,8 +1230,33 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="28">
+        <v>44312.485564768518</v>
+      </c>
+      <c r="C16" s="29">
+        <v>103</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="31">
+        <v>536</v>
+      </c>
+      <c r="F16" s="32">
+        <v>515</v>
+      </c>
+      <c r="G16" s="33">
+        <v>21</v>
+      </c>
+      <c r="H16" s="32">
+        <v>96</v>
+      </c>
+      <c r="I16" s="33">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>

--- a/WPMTracker/WPM.xlsx
+++ b/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1568,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="42" t="n">
-        <v>44312.67528114574</v>
+        <v>44312.67528114584</v>
       </c>
       <c r="C21" s="43" t="n">
         <v>99</v>
@@ -1595,16 +1595,97 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="12" t="n"/>
-      <c r="G22" s="1" t="n"/>
+      <c r="A22" s="41" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="42" t="n">
+        <v>44313.48644244213</v>
+      </c>
+      <c r="C22" s="43" t="n">
+        <v>92</v>
+      </c>
+      <c r="D22" s="44" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="E22" s="45" t="n">
+        <v>509</v>
+      </c>
+      <c r="F22" s="46" t="n">
+        <v>461</v>
+      </c>
+      <c r="G22" s="47" t="n">
+        <v>48</v>
+      </c>
+      <c r="H22" s="46" t="n">
+        <v>81</v>
+      </c>
+      <c r="I22" s="47" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="12" t="n"/>
-      <c r="G23" s="1" t="n"/>
+      <c r="A23" s="41" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="42" t="n">
+        <v>44313.71834622685</v>
+      </c>
+      <c r="C23" s="43" t="n">
+        <v>87</v>
+      </c>
+      <c r="D23" s="44" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="E23" s="45" t="n">
+        <v>446</v>
+      </c>
+      <c r="F23" s="46" t="n">
+        <v>436</v>
+      </c>
+      <c r="G23" s="47" t="n">
+        <v>10</v>
+      </c>
+      <c r="H23" s="46" t="n">
+        <v>83</v>
+      </c>
+      <c r="I23" s="47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24" s="12" t="n"/>
-      <c r="G24" s="1" t="n"/>
+      <c r="A24" s="41" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="42" t="n">
+        <v>44313.76618999836</v>
+      </c>
+      <c r="C24" s="43" t="n">
+        <v>91</v>
+      </c>
+      <c r="D24" s="44" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="E24" s="45" t="n">
+        <v>484</v>
+      </c>
+      <c r="F24" s="46" t="n">
+        <v>453</v>
+      </c>
+      <c r="G24" s="47" t="n">
+        <v>31</v>
+      </c>
+      <c r="H24" s="46" t="n">
+        <v>86</v>
+      </c>
+      <c r="I24" s="47" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="B25" s="12" t="n"/>

--- a/WPMTracker/WPM.xlsx
+++ b/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1661,7 +1661,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="42" t="n">
-        <v>44313.76618999836</v>
+        <v>44313.76619</v>
       </c>
       <c r="C24" s="43" t="n">
         <v>91</v>
@@ -1688,25 +1688,221 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="12" t="n"/>
+      <c r="A25" s="41" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="42" t="n">
+        <v>44314.46535142361</v>
+      </c>
+      <c r="C25" s="43" t="n">
+        <v>97</v>
+      </c>
+      <c r="D25" s="44" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="E25" s="45" t="n">
+        <v>502</v>
+      </c>
+      <c r="F25" s="46" t="n">
+        <v>487</v>
+      </c>
+      <c r="G25" s="47" t="n">
+        <v>15</v>
+      </c>
+      <c r="H25" s="46" t="n">
+        <v>93</v>
+      </c>
+      <c r="I25" s="47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="A26" s="41" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="42" t="n">
+        <v>44314.46615027777</v>
+      </c>
+      <c r="C26" s="43" t="n">
+        <v>95</v>
+      </c>
+      <c r="D26" s="44" t="inlineStr">
+        <is>
+          <t>97.14</t>
+        </is>
+      </c>
+      <c r="E26" s="45" t="n">
+        <v>482</v>
+      </c>
+      <c r="F26" s="46" t="n">
+        <v>475</v>
+      </c>
+      <c r="G26" s="47" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" s="46" t="n">
+        <v>86</v>
+      </c>
+      <c r="I26" s="47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="12" t="n"/>
+      <c r="A27" s="41" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="42" t="n">
+        <v>44314.46709310186</v>
+      </c>
+      <c r="C27" s="43" t="n">
+        <v>94</v>
+      </c>
+      <c r="D27" s="44" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="E27" s="45" t="n">
+        <v>498</v>
+      </c>
+      <c r="F27" s="46" t="n">
+        <v>471</v>
+      </c>
+      <c r="G27" s="47" t="n">
+        <v>27</v>
+      </c>
+      <c r="H27" s="46" t="n">
+        <v>87</v>
+      </c>
+      <c r="I27" s="47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" s="12" t="n"/>
+      <c r="A28" s="41" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="42" t="n">
+        <v>44314.46806174768</v>
+      </c>
+      <c r="C28" s="43" t="n">
+        <v>90</v>
+      </c>
+      <c r="D28" s="44" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="E28" s="45" t="n">
+        <v>485</v>
+      </c>
+      <c r="F28" s="46" t="n">
+        <v>452</v>
+      </c>
+      <c r="G28" s="47" t="n">
+        <v>33</v>
+      </c>
+      <c r="H28" s="46" t="n">
+        <v>81</v>
+      </c>
+      <c r="I28" s="47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="12" t="n"/>
+      <c r="A29" s="41" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="42" t="n">
+        <v>44314.54006215278</v>
+      </c>
+      <c r="C29" s="43" t="n">
+        <v>93</v>
+      </c>
+      <c r="D29" s="44" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="E29" s="45" t="n">
+        <v>485</v>
+      </c>
+      <c r="F29" s="46" t="n">
+        <v>465</v>
+      </c>
+      <c r="G29" s="47" t="n">
+        <v>20</v>
+      </c>
+      <c r="H29" s="46" t="n">
+        <v>83</v>
+      </c>
+      <c r="I29" s="47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
-      <c r="B30" s="12" t="n"/>
+      <c r="A30" s="41" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="42" t="n">
+        <v>44314.703115</v>
+      </c>
+      <c r="C30" s="43" t="n">
+        <v>87</v>
+      </c>
+      <c r="D30" s="44" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="E30" s="45" t="n">
+        <v>450</v>
+      </c>
+      <c r="F30" s="46" t="n">
+        <v>435</v>
+      </c>
+      <c r="G30" s="47" t="n">
+        <v>15</v>
+      </c>
+      <c r="H30" s="46" t="n">
+        <v>76</v>
+      </c>
+      <c r="I30" s="47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="12" t="n"/>
+      <c r="A31" s="41" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="42" t="n">
+        <v>44314.70400155785</v>
+      </c>
+      <c r="C31" s="43" t="n">
+        <v>89</v>
+      </c>
+      <c r="D31" s="44" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="E31" s="45" t="n">
+        <v>460</v>
+      </c>
+      <c r="F31" s="46" t="n">
+        <v>444</v>
+      </c>
+      <c r="G31" s="47" t="n">
+        <v>16</v>
+      </c>
+      <c r="H31" s="46" t="n">
+        <v>84</v>
+      </c>
+      <c r="I31" s="47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" s="12" t="n"/>

--- a/WPMTracker/WPM.xlsx
+++ b/WPMTracker/WPM.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="2490" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="WPM" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPM" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1878,7 +1878,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="42" t="n">
-        <v>44314.70400155785</v>
+        <v>44314.7040015625</v>
       </c>
       <c r="C31" s="43" t="n">
         <v>89</v>
@@ -1905,10 +1905,66 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="12" t="n"/>
+      <c r="A32" s="41" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="42" t="n">
+        <v>44314.8126249537</v>
+      </c>
+      <c r="C32" s="43" t="n">
+        <v>101</v>
+      </c>
+      <c r="D32" s="44" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="E32" s="45" t="n">
+        <v>512</v>
+      </c>
+      <c r="F32" s="46" t="n">
+        <v>506</v>
+      </c>
+      <c r="G32" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="46" t="n">
+        <v>90</v>
+      </c>
+      <c r="I32" s="47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="12" t="n"/>
+      <c r="A33" s="41" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="42" t="n">
+        <v>44314.92988149303</v>
+      </c>
+      <c r="C33" s="43" t="n">
+        <v>95</v>
+      </c>
+      <c r="D33" s="44" t="inlineStr">
+        <is>
+          <t>95.59</t>
+        </is>
+      </c>
+      <c r="E33" s="45" t="n">
+        <v>492</v>
+      </c>
+      <c r="F33" s="46" t="n">
+        <v>477</v>
+      </c>
+      <c r="G33" s="47" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" s="46" t="n">
+        <v>86</v>
+      </c>
+      <c r="I33" s="47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="12" t="n"/>
